--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/7VikwinDataDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/7VikwinDataDuplicateGamesList.xlsx
@@ -6,279 +6,276 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="brokenIMG" r:id="rId3" sheetId="1"/>
+    <sheet name="CopyGames" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  Adventure Palace</t>
   </si>
   <si>
-    <t>2  This game has duplicate Please check it :  Name =  Age of Troy</t>
-  </si>
-  <si>
-    <t>3  This game has duplicate Please check it :  Name =  Agent Jane Blonde</t>
-  </si>
-  <si>
-    <t>4  This game has duplicate Please check it :  Name =  Alaskan Fishing</t>
-  </si>
-  <si>
-    <t>5  This game has duplicate Please check it :  Name =  Amazing Amazonia</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  American Roulette</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  Ariana</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  Asian Beauty</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  Avalon</t>
-  </si>
-  <si>
-    <t>10  This game has duplicate Please check it :  Name =  Basketball Star</t>
-  </si>
-  <si>
-    <t>11  This game has duplicate Please check it :  Name =  Blood Suckers</t>
-  </si>
-  <si>
-    <t>12  This game has duplicate Please check it :  Name =  Blue Heart</t>
-  </si>
-  <si>
-    <t>13  This game has duplicate Please check it :  Name =  Breakaway</t>
-  </si>
-  <si>
-    <t>14  This game has duplicate Please check it :  Name =  Burning Desire</t>
-  </si>
-  <si>
-    <t>15  This game has duplicate Please check it :  Name =  Burning Hot</t>
-  </si>
-  <si>
-    <t>16  This game has duplicate Please check it :  Name =  Cashapillar</t>
-  </si>
-  <si>
-    <t>17  This game has duplicate Please check it :  Name =  Cool Wolf</t>
-  </si>
-  <si>
-    <t>18  This game has duplicate Please check it :  Name =  Dead or Alive</t>
-  </si>
-  <si>
-    <t>19  This game has duplicate Please check it :  Name =  Deck the Halls</t>
-  </si>
-  <si>
-    <t>20  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>21  This game has duplicate Please check it :  Name =  Dolphin Quest</t>
-  </si>
-  <si>
-    <t>22  This game has duplicate Please check it :  Name =  Dragon Reels</t>
-  </si>
-  <si>
-    <t>23  This game has duplicate Please check it :  Name =  Dragonz</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  Eagles Wings</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  Eggomatic</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  Elements</t>
-  </si>
-  <si>
-    <t>27  This game has duplicate Please check it :  Name =  Emperor of the Sea</t>
-  </si>
-  <si>
-    <t>28  This game has duplicate Please check it :  Name =  Excalibur</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  Flaming Hot</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  Fortune Spells</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  French Roulette</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  Game of Thrones</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  Ghost Pirates</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  Glow</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Gods of Giza</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Grace of Cleopatra</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Huangdi Yellow Emperor</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Immortal Romance</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Isis</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Jack &amp; Beanstalk</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Jack Hammer</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Jack Hammer 2</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Jungle Jim Eldorado</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Kathmandu</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  King of Cash</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  King of Slots</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Lady in Red</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Life of Riches</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Lights</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Loaded</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Lotus Land</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Lucky Angler</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Lucky Koi</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Lucky Twins</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Magic Portals</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Majestic Forest</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Mayan Princess</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  Mermaids Millions</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Mythic Maiden</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Olympus Glory</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  Piggy Riches</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Pistoleras</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Pretty Kitty</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Reel Rush</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Reel Steal</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Rise of Ra</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Royal Secrets</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  Scrooge</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  Shining Crown</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Silver Fang</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  Spellcast</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  Spinata Grande</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  Starburst</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  Stardust</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Suntide</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Supreme Hot</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Thunderstruck</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Thunderstruck II</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Titans of the Sun: Heia</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Titans of the Sun: Hyperion</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  Tomb Raider</t>
-  </si>
-  <si>
-    <t>83  This game has duplicate Please check it :  Name =  Twin Spin</t>
-  </si>
-  <si>
-    <t>84  This game has duplicate Please check it :  Name =  Ultimate Hot</t>
-  </si>
-  <si>
-    <t>85  This game has duplicate Please check it :  Name =  Versailles Gold</t>
-  </si>
-  <si>
-    <t>86  This game has duplicate Please check it :  Name =  Vikings</t>
-  </si>
-  <si>
-    <t>87  This game has duplicate Please check it :  Name =  Wild Water</t>
-  </si>
-  <si>
-    <t>88  This game has duplicate Please check it :  Name =  Witches Charm</t>
-  </si>
-  <si>
-    <t>89  This game has duplicate Please check it :  Name =  Zodiac Wheel</t>
+    <t>2  This game has duplicate Please check it :  Name =  Agent Jane Blonde</t>
+  </si>
+  <si>
+    <t>3  This game has duplicate Please check it :  Name =  Alaskan Fishing</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  Amazing Amazonia</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  Ariana</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  Asian Beauty</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  Avalon</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  Basketball Star</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  Blood Suckers</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  Blue Heart</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  Breakaway</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  Burning Desire</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  Burning Hot</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  Cashapillar</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  Cool Wolf</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  Dead or Alive</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  Deck the Halls</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  Dolphin Quest</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  Dragon Reels</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  Dragonz</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  Eagles Wings</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Eggomatic</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Elements</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  Emperor of the Sea</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  Excalibur</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Flaming Hot</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Fortune Spells</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Game of Thrones</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Ghost Pirates</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Glow</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Gods of Giza</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Grace of Cleopatra</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Huangdi Yellow Emperor</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Immortal Romance</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Isis</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Jack &amp; Beanstalk</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Jack Hammer</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Jack Hammer 2</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Jungle Jim Eldorado</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Kathmandu</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  King of Cash</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  King of Slots</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Lady in Red</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Life of Riches</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Lights</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  Loaded</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  Lotus Land</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  Lucky Angler</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  Lucky Koi</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Lucky Twins</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  Magic Portals</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  Majestic Forest</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  Mayan Princess</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  Mermaids Millions</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  Mythic Maiden</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  Olympus Glory</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  Piggy Riches</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  Pistoleras</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  Pretty Kitty</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  Reel Rush</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  Reel Steal</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Rise of Ra</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Royal Secrets</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  Scrooge</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  Shining Crown</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  Silver Fang</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  Spellcast</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  Spinata Grande</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  Starburst</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Stardust</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Suntide</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Supreme Hot</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Thunderstruck</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Thunderstruck II</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Titans of the Sun: Heia</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  Titans of the Sun: Hyperion</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  Tomb Raider</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  Twin Spin</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Ultimate Hot</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Versailles Gold</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  Vikings</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  Wild Water</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  Witches Charm</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  Zodiac Wheel</t>
   </si>
 </sst>
 </file>
@@ -323,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -772,11 +769,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
